--- a/tabular/eve/epv-amdo-side-data.xlsx
+++ b/tabular/eve/epv-amdo-side-data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D25940-40D8-F345-B3E9-9EE2831C28B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C902B567-E515-F14F-B7B7-FE3CAE00230B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1300" windowWidth="26840" windowHeight="15940" xr2:uid="{2F9488FE-EF26-BC4E-B507-8D599DE613FA}"/>
   </bookViews>
   <sheets>
     <sheet name="tab data only" sheetId="1" r:id="rId1"/>
-    <sheet name="with sequence" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="with sequence" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="94">
   <si>
     <t>record_id</t>
   </si>
@@ -289,13 +290,40 @@
   </si>
   <si>
     <t>NK</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>virus-genus</t>
+  </si>
+  <si>
+    <t>host_class</t>
+  </si>
+  <si>
+    <t>host_superorder</t>
+  </si>
+  <si>
+    <t>host_order</t>
+  </si>
+  <si>
+    <t>host_family</t>
+  </si>
+  <si>
+    <t>host_genus</t>
+  </si>
+  <si>
+    <t>subject_start</t>
+  </si>
+  <si>
+    <t>subject_end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -319,8 +347,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +400,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000090"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -376,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -389,6 +438,26 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,1035 +772,1081 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27004FA-B0EC-5742-ACC6-AAC6C3B4EC5F}">
-  <dimension ref="A1:V15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L2" workbookViewId="0">
-      <selection activeCell="V14" sqref="A1:V15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="A1:W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>127319</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3367</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="6">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="G2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>4462</v>
+      </c>
+      <c r="R2" s="6">
+        <v>7828</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="V2" s="6">
+        <v>795</v>
+      </c>
+      <c r="W2" s="6">
+        <v>74.141000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>69149</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1761</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>110876</v>
+      </c>
+      <c r="R3" s="6">
+        <v>112636</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="6">
+        <v>854</v>
+      </c>
+      <c r="W3" s="6">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>3304</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6">
+        <v>519</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>9520</v>
+      </c>
+      <c r="R4" s="6">
+        <v>10038</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="6">
+        <v>299</v>
+      </c>
+      <c r="W4" s="6">
+        <v>77.456999999999994</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>567</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="6">
+        <v>294</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="6">
+        <v>102</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>3652</v>
+      </c>
+      <c r="R5" s="6">
+        <v>3945</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="V5" s="6">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="W5" s="6">
+        <v>36.448999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>565</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="6">
+        <v>189</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="6">
+        <v>103</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>9405476</v>
+      </c>
+      <c r="R6" s="6">
+        <v>9405664</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V6" s="6">
+        <v>74.3</v>
+      </c>
+      <c r="W6" s="6">
+        <v>53.968000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>69149</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1761</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>110876</v>
+      </c>
+      <c r="R7" s="6">
+        <v>112636</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="6">
+        <v>854</v>
+      </c>
+      <c r="W7" s="6">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>127319</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6">
-        <v>127319</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="D8" s="6">
+        <v>3367</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="6">
+      <c r="F8" s="6">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="M8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O2">
+      <c r="Q8" s="6">
         <v>4462</v>
       </c>
-      <c r="P2">
+      <c r="R8" s="6">
         <v>7828</v>
       </c>
-      <c r="Q2">
-        <v>3367</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U2">
+      <c r="V8" s="6">
         <v>795</v>
       </c>
-      <c r="V2">
+      <c r="W8" s="6">
         <v>74.141000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="6">
-        <v>69149</v>
-      </c>
-      <c r="C3" s="6" t="s">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>3304</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6">
+        <v>519</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="6">
+      <c r="F9" s="6">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="M9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
+      <c r="O9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3">
-        <v>110876</v>
-      </c>
-      <c r="P3">
-        <v>112636</v>
-      </c>
-      <c r="Q3">
-        <v>1761</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="P9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>9520</v>
+      </c>
+      <c r="R9" s="6">
+        <v>10038</v>
+      </c>
+      <c r="S9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="T9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U3">
-        <v>854</v>
-      </c>
-      <c r="V3">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="6">
-        <v>3304</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="V9" s="6">
+        <v>299</v>
+      </c>
+      <c r="W9" s="6">
+        <v>77.456999999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>565</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="6">
+        <v>189</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="6">
+        <v>103</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4">
-        <v>9520</v>
-      </c>
-      <c r="P4">
-        <v>10038</v>
-      </c>
-      <c r="Q4">
-        <v>519</v>
-      </c>
-      <c r="R4" t="s">
+      <c r="I10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>9405476</v>
+      </c>
+      <c r="R10" s="6">
+        <v>9405664</v>
+      </c>
+      <c r="S10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U10" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="V10" s="6">
+        <v>74.3</v>
+      </c>
+      <c r="W10" s="6">
+        <v>53.968000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>567</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="6">
+        <v>294</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="6">
+        <v>102</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>3652</v>
+      </c>
+      <c r="R11" s="6">
+        <v>3945</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="T11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U4">
-        <v>299</v>
-      </c>
-      <c r="V4">
-        <v>77.456999999999994</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="6">
-        <v>567</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="6">
-        <v>102</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J5" t="s">
-        <v>47</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" t="s">
-        <v>50</v>
-      </c>
-      <c r="O5">
-        <v>3652</v>
-      </c>
-      <c r="P5">
-        <v>3945</v>
-      </c>
-      <c r="Q5">
-        <v>294</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="V11" s="6">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="W11" s="6">
+        <v>36.448999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>127320</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="6">
+        <v>2564</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="6">
+        <v>101</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1054543</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1057106</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U5">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="V5">
-        <v>36.448999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="6">
-        <v>565</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="6">
-        <v>103</v>
-      </c>
-      <c r="E6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" t="s">
-        <v>56</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6">
-        <v>9405476</v>
-      </c>
-      <c r="P6">
-        <v>9405664</v>
-      </c>
-      <c r="Q6">
-        <v>189</v>
-      </c>
-      <c r="R6" t="s">
+      <c r="V12" s="6">
+        <v>184</v>
+      </c>
+      <c r="W12" s="6">
+        <v>40.927999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>568</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="6">
+        <v>552</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="6">
+        <v>101</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>97683</v>
+      </c>
+      <c r="R13" s="6">
+        <v>98234</v>
+      </c>
+      <c r="S13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="U6">
-        <v>74.3</v>
-      </c>
-      <c r="V6">
-        <v>53.968000000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="6">
-        <v>69149</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" t="s">
-        <v>37</v>
-      </c>
-      <c r="O7">
-        <v>110876</v>
-      </c>
-      <c r="P7">
-        <v>112636</v>
-      </c>
-      <c r="Q7">
-        <v>1761</v>
-      </c>
-      <c r="R7" t="s">
+      <c r="V13" s="6">
+        <v>126</v>
+      </c>
+      <c r="W13" s="6">
+        <v>37.968000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>127320</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="6">
+        <v>2564</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="6">
+        <v>101</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1054543</v>
+      </c>
+      <c r="R14" s="6">
+        <v>1057106</v>
+      </c>
+      <c r="S14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="T14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="U7">
-        <v>854</v>
-      </c>
-      <c r="V7">
-        <v>68.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="6">
-        <v>127319</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8">
-        <v>4462</v>
-      </c>
-      <c r="P8">
-        <v>7828</v>
-      </c>
-      <c r="Q8">
-        <v>3367</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="V14" s="6">
+        <v>184</v>
+      </c>
+      <c r="W14" s="6">
+        <v>40.927999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>568</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6">
+        <v>552</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="6">
+        <v>101</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>97683</v>
+      </c>
+      <c r="R15" s="6">
+        <v>98234</v>
+      </c>
+      <c r="S15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="T8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8">
-        <v>795</v>
-      </c>
-      <c r="V8">
-        <v>74.141000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="6">
-        <v>3304</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9">
-        <v>9520</v>
-      </c>
-      <c r="P9">
-        <v>10038</v>
-      </c>
-      <c r="Q9">
-        <v>519</v>
-      </c>
-      <c r="R9" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" t="s">
-        <v>33</v>
-      </c>
-      <c r="T9" t="s">
-        <v>34</v>
-      </c>
-      <c r="U9">
-        <v>299</v>
-      </c>
-      <c r="V9">
-        <v>77.456999999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="6">
-        <v>565</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="6">
-        <v>103</v>
-      </c>
-      <c r="E10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" t="s">
-        <v>55</v>
-      </c>
-      <c r="J10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" t="s">
-        <v>58</v>
-      </c>
-      <c r="N10" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10">
-        <v>9405476</v>
-      </c>
-      <c r="P10">
-        <v>9405664</v>
-      </c>
-      <c r="Q10">
-        <v>189</v>
-      </c>
-      <c r="R10" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" t="s">
-        <v>33</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="U15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="U10">
-        <v>74.3</v>
-      </c>
-      <c r="V10">
-        <v>53.968000000000004</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="6">
-        <v>567</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="6">
-        <v>102</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-      <c r="H11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-      <c r="K11" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" t="s">
-        <v>48</v>
-      </c>
-      <c r="M11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N11" t="s">
-        <v>50</v>
-      </c>
-      <c r="O11">
-        <v>3652</v>
-      </c>
-      <c r="P11">
-        <v>3945</v>
-      </c>
-      <c r="Q11">
-        <v>294</v>
-      </c>
-      <c r="R11" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" t="s">
-        <v>33</v>
-      </c>
-      <c r="T11" t="s">
-        <v>34</v>
-      </c>
-      <c r="U11">
-        <v>77.400000000000006</v>
-      </c>
-      <c r="V11">
-        <v>36.448999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="6">
-        <v>127320</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="6">
-        <v>101</v>
-      </c>
-      <c r="E12" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" t="s">
-        <v>69</v>
-      </c>
-      <c r="M12" t="s">
-        <v>70</v>
-      </c>
-      <c r="N12" t="s">
-        <v>71</v>
-      </c>
-      <c r="O12">
-        <v>1054543</v>
-      </c>
-      <c r="P12">
-        <v>1057106</v>
-      </c>
-      <c r="Q12">
-        <v>2564</v>
-      </c>
-      <c r="R12" t="s">
-        <v>32</v>
-      </c>
-      <c r="S12" t="s">
-        <v>33</v>
-      </c>
-      <c r="T12" t="s">
-        <v>34</v>
-      </c>
-      <c r="U12">
-        <v>184</v>
-      </c>
-      <c r="V12">
-        <v>40.927999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="6">
-        <v>568</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="6">
-        <v>101</v>
-      </c>
-      <c r="E13" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" t="s">
-        <v>68</v>
-      </c>
-      <c r="K13" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" t="s">
-        <v>75</v>
-      </c>
-      <c r="M13" t="s">
-        <v>76</v>
-      </c>
-      <c r="N13" t="s">
-        <v>77</v>
-      </c>
-      <c r="O13">
-        <v>97683</v>
-      </c>
-      <c r="P13">
-        <v>98234</v>
-      </c>
-      <c r="Q13">
-        <v>552</v>
-      </c>
-      <c r="R13" t="s">
-        <v>32</v>
-      </c>
-      <c r="S13" t="s">
-        <v>33</v>
-      </c>
-      <c r="T13" t="s">
-        <v>60</v>
-      </c>
-      <c r="U13">
+      <c r="V15" s="6">
         <v>126</v>
       </c>
-      <c r="V13">
-        <v>37.968000000000004</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="6">
-        <v>127320</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="6">
-        <v>101</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
-      <c r="G14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" t="s">
-        <v>67</v>
-      </c>
-      <c r="J14" t="s">
-        <v>68</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" t="s">
-        <v>69</v>
-      </c>
-      <c r="M14" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" t="s">
-        <v>71</v>
-      </c>
-      <c r="O14">
-        <v>1054543</v>
-      </c>
-      <c r="P14">
-        <v>1057106</v>
-      </c>
-      <c r="Q14">
-        <v>2564</v>
-      </c>
-      <c r="R14" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" t="s">
-        <v>33</v>
-      </c>
-      <c r="T14" t="s">
-        <v>34</v>
-      </c>
-      <c r="U14">
-        <v>184</v>
-      </c>
-      <c r="V14">
-        <v>40.927999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="6">
-        <v>568</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="6">
-        <v>101</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" t="s">
-        <v>68</v>
-      </c>
-      <c r="K15" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" t="s">
-        <v>75</v>
-      </c>
-      <c r="M15" t="s">
-        <v>76</v>
-      </c>
-      <c r="N15" t="s">
-        <v>77</v>
-      </c>
-      <c r="O15">
-        <v>97683</v>
-      </c>
-      <c r="P15">
-        <v>98234</v>
-      </c>
-      <c r="Q15">
-        <v>552</v>
-      </c>
-      <c r="R15" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" t="s">
-        <v>33</v>
-      </c>
-      <c r="T15" t="s">
-        <v>60</v>
-      </c>
-      <c r="U15">
-        <v>126</v>
-      </c>
-      <c r="V15">
+      <c r="W15" s="6">
         <v>37.968000000000004</v>
       </c>
     </row>
@@ -1741,10 +1856,152 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BA254FA-5249-ED4B-81C7-CE1016FDD42B}">
+  <dimension ref="A1:V2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B9997C-82B0-F44D-A5C9-911A27EB5CF8}">
   <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>

--- a/tabular/eve/epv-amdo-side-data.xlsx
+++ b/tabular/eve/epv-amdo-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C902B567-E515-F14F-B7B7-FE3CAE00230B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EE1D05-BE2A-884A-94C6-D0DC717EFA56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1300" windowWidth="26840" windowHeight="15940" xr2:uid="{2F9488FE-EF26-BC4E-B507-8D599DE613FA}"/>
   </bookViews>
@@ -775,7 +775,7 @@
   <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:W15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tabular/eve/epv-amdo-side-data.xlsx
+++ b/tabular/eve/epv-amdo-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EE1D05-BE2A-884A-94C6-D0DC717EFA56}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80736E0D-1377-CB41-A0EA-1D75AEFC41D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1300" windowWidth="26840" windowHeight="15940" xr2:uid="{2F9488FE-EF26-BC4E-B507-8D599DE613FA}"/>
+    <workbookView xWindow="15260" yWindow="4180" windowWidth="26840" windowHeight="15940" xr2:uid="{2F9488FE-EF26-BC4E-B507-8D599DE613FA}"/>
   </bookViews>
   <sheets>
     <sheet name="tab data only" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="96">
   <si>
     <t>record_id</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>subject_end</t>
+  </si>
+  <si>
+    <t>virus-subfamily</t>
+  </si>
+  <si>
+    <t>Parvovirinae</t>
   </si>
 </sst>
 </file>
@@ -772,1081 +778,1126 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C27004FA-B0EC-5742-ACC6-AAC6C3B4EC5F}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.1640625" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="S1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>127319</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6">
+      <c r="E2" s="6">
         <v>3367</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="6">
+      <c r="G2" s="6">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="N2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="6">
+      <c r="R2" s="6">
         <v>4462</v>
       </c>
-      <c r="R2" s="6">
+      <c r="S2" s="6">
         <v>7828</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V2" s="6">
+      <c r="W2" s="6">
         <v>795</v>
       </c>
-      <c r="W2" s="6">
+      <c r="X2" s="6">
         <v>74.141000000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>69149</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="6">
+      <c r="E3" s="6">
         <v>1761</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="6">
+      <c r="G3" s="6">
         <v>0</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="N3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="R3" s="6">
         <v>110876</v>
       </c>
-      <c r="R3" s="6">
+      <c r="S3" s="6">
         <v>112636</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V3" s="6">
+      <c r="W3" s="6">
         <v>854</v>
       </c>
-      <c r="W3" s="6">
+      <c r="X3" s="6">
         <v>68.75</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>3304</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="6">
+      <c r="E4" s="6">
         <v>519</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F4" s="6">
+      <c r="G4" s="6">
         <v>0</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="N4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="P4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="Q4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="R4" s="6">
         <v>9520</v>
       </c>
-      <c r="R4" s="6">
+      <c r="S4" s="6">
         <v>10038</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="6">
+      <c r="W4" s="6">
         <v>299</v>
       </c>
-      <c r="W4" s="6">
+      <c r="X4" s="6">
         <v>77.456999999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>567</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="6">
+      <c r="E5" s="6">
         <v>294</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F5" s="6">
+      <c r="G5" s="6">
         <v>102</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="N5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="P5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="6" t="s">
+      <c r="Q5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="R5" s="6">
         <v>3652</v>
       </c>
-      <c r="R5" s="6">
+      <c r="S5" s="6">
         <v>3945</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="6" t="s">
+      <c r="U5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="V5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V5" s="6">
+      <c r="W5" s="6">
         <v>77.400000000000006</v>
       </c>
-      <c r="W5" s="6">
+      <c r="X5" s="6">
         <v>36.448999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>565</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="6">
+      <c r="E6" s="6">
         <v>189</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="6">
+      <c r="G6" s="6">
         <v>103</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="H6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="I6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="N6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="P6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="Q6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="R6" s="6">
         <v>9405476</v>
       </c>
-      <c r="R6" s="6">
+      <c r="S6" s="6">
         <v>9405664</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="U6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="V6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V6" s="6">
+      <c r="W6" s="6">
         <v>74.3</v>
       </c>
-      <c r="W6" s="6">
+      <c r="X6" s="6">
         <v>53.968000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>69149</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="6">
+      <c r="E7" s="6">
         <v>1761</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="6">
         <v>0</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="I7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="N7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="R7" s="6">
         <v>110876</v>
       </c>
-      <c r="R7" s="6">
+      <c r="S7" s="6">
         <v>112636</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="T7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T7" s="6" t="s">
+      <c r="U7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="V7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V7" s="6">
+      <c r="W7" s="6">
         <v>854</v>
       </c>
-      <c r="W7" s="6">
+      <c r="X7" s="6">
         <v>68.75</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>127319</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6">
+      <c r="E8" s="6">
         <v>3367</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="6">
+      <c r="G8" s="6">
         <v>0</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="N8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="R8" s="6">
         <v>4462</v>
       </c>
-      <c r="R8" s="6">
+      <c r="S8" s="6">
         <v>7828</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T8" s="6" t="s">
+      <c r="U8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="V8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V8" s="6">
+      <c r="W8" s="6">
         <v>795</v>
       </c>
-      <c r="W8" s="6">
+      <c r="X8" s="6">
         <v>74.141000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>3304</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="6">
+      <c r="E9" s="6">
         <v>519</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="6">
+      <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="I9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="J9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="N9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="6" t="s">
+      <c r="Q9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="R9" s="6">
         <v>9520</v>
       </c>
-      <c r="R9" s="6">
+      <c r="S9" s="6">
         <v>10038</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T9" s="6" t="s">
+      <c r="U9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="6" t="s">
+      <c r="V9" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V9" s="6">
+      <c r="W9" s="6">
         <v>299</v>
       </c>
-      <c r="W9" s="6">
+      <c r="X9" s="6">
         <v>77.456999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>565</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="6">
+      <c r="E10" s="6">
         <v>189</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="6">
+      <c r="G10" s="6">
         <v>103</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="I10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="J10" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="N10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="P10" s="6" t="s">
+      <c r="Q10" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="R10" s="6">
         <v>9405476</v>
       </c>
-      <c r="R10" s="6">
+      <c r="S10" s="6">
         <v>9405664</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="T10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T10" s="6" t="s">
+      <c r="U10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="6" t="s">
+      <c r="V10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V10" s="6">
+      <c r="W10" s="6">
         <v>74.3</v>
       </c>
-      <c r="W10" s="6">
+      <c r="X10" s="6">
         <v>53.968000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>567</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="6">
+      <c r="E11" s="6">
         <v>294</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="6">
+      <c r="G11" s="6">
         <v>102</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="H11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="6" t="s">
+      <c r="I11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="J11" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="N11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="P11" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="P11" s="6" t="s">
+      <c r="Q11" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="R11" s="6">
         <v>3652</v>
       </c>
-      <c r="R11" s="6">
+      <c r="S11" s="6">
         <v>3945</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="T11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T11" s="6" t="s">
+      <c r="U11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="V11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V11" s="6">
+      <c r="W11" s="6">
         <v>77.400000000000006</v>
       </c>
-      <c r="W11" s="6">
+      <c r="X11" s="6">
         <v>36.448999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>127320</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="6">
+      <c r="E12" s="6">
         <v>2564</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="6">
+      <c r="G12" s="6">
         <v>101</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="H12" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="I12" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="J12" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="N12" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="P12" s="6" t="s">
+      <c r="Q12" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="R12" s="6">
         <v>1054543</v>
       </c>
-      <c r="R12" s="6">
+      <c r="S12" s="6">
         <v>1057106</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="T12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T12" s="6" t="s">
+      <c r="U12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="V12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V12" s="6">
+      <c r="W12" s="6">
         <v>184</v>
       </c>
-      <c r="W12" s="6">
+      <c r="X12" s="6">
         <v>40.927999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>568</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="6">
+      <c r="E13" s="6">
         <v>552</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="F13" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F13" s="6">
+      <c r="G13" s="6">
         <v>101</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="H13" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="I13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="J13" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="N13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="6" t="s">
+      <c r="Q13" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="R13" s="6">
         <v>97683</v>
       </c>
-      <c r="R13" s="6">
+      <c r="S13" s="6">
         <v>98234</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="T13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T13" s="6" t="s">
+      <c r="U13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="V13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V13" s="6">
+      <c r="W13" s="6">
         <v>126</v>
       </c>
-      <c r="W13" s="6">
+      <c r="X13" s="6">
         <v>37.968000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>127320</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="6">
+      <c r="E14" s="6">
         <v>2564</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F14" s="6">
+      <c r="G14" s="6">
         <v>101</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="H14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="I14" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="J14" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="N14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="P14" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="P14" s="6" t="s">
+      <c r="Q14" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="R14" s="6">
         <v>1054543</v>
       </c>
-      <c r="R14" s="6">
+      <c r="S14" s="6">
         <v>1057106</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="T14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T14" s="6" t="s">
+      <c r="U14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="6" t="s">
+      <c r="V14" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="V14" s="6">
+      <c r="W14" s="6">
         <v>184</v>
       </c>
-      <c r="W14" s="6">
+      <c r="X14" s="6">
         <v>40.927999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>568</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="6">
+      <c r="E15" s="6">
         <v>552</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="F15" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="F15" s="6">
+      <c r="G15" s="6">
         <v>101</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="I15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="J15" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="L15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="N15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="P15" s="6" t="s">
+      <c r="Q15" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="R15" s="6">
         <v>97683</v>
       </c>
-      <c r="R15" s="6">
+      <c r="S15" s="6">
         <v>98234</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="T15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="T15" s="6" t="s">
+      <c r="U15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="6" t="s">
+      <c r="V15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="V15" s="6">
+      <c r="W15" s="6">
         <v>126</v>
       </c>
-      <c r="W15" s="6">
+      <c r="X15" s="6">
         <v>37.968000000000004</v>
       </c>
     </row>

--- a/tabular/eve/epv-amdo-side-data.xlsx
+++ b/tabular/eve/epv-amdo-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEF7C4C-9D55-FB4E-B22E-F144FDDA5426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3004DB4B-4E81-1A46-96FB-B14DE4D2FBD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18300" yWindow="8840" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19720" yWindow="2720" windowWidth="31140" windowHeight="26000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query_result" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>ap.100-protobothrops</t>
-  </si>
-  <si>
     <t>translated-genome</t>
   </si>
   <si>
@@ -283,59 +280,62 @@
     <t>sequenceID</t>
   </si>
   <si>
+    <t>ap.102-Heterohyrax_brucei</t>
+  </si>
+  <si>
+    <t>ap.102-Procavia_capensis</t>
+  </si>
+  <si>
+    <t>locus_numeric_id</t>
+  </si>
+  <si>
+    <t>name_stem</t>
+  </si>
+  <si>
+    <t>locus_name</t>
+  </si>
+  <si>
+    <t>amdo.1</t>
+  </si>
+  <si>
+    <t>amdo.2</t>
+  </si>
+  <si>
+    <t>ap.102</t>
+  </si>
+  <si>
     <t>amdo.1-Ellobius_lutescens</t>
   </si>
   <si>
     <t>amdo.2-Ellobius_lutescens</t>
   </si>
   <si>
-    <t>ap.100-Crotalus_horridus</t>
-  </si>
-  <si>
-    <t>ap.100-Crotalus_viridis</t>
-  </si>
-  <si>
-    <t>ap.102-Heterohyrax_brucei</t>
-  </si>
-  <si>
-    <t>ap.102-Procavia_capensis</t>
-  </si>
-  <si>
-    <t>ap.100-Protobothrops_flavoviridis</t>
-  </si>
-  <si>
-    <t>ap.100-Protobothrops_mucrosquamatus</t>
-  </si>
-  <si>
-    <t>ap.100-Ptyas_mucosa</t>
-  </si>
-  <si>
-    <t>locus_numeric_id</t>
-  </si>
-  <si>
-    <t>name_stem</t>
-  </si>
-  <si>
-    <t>locus_name</t>
-  </si>
-  <si>
-    <t>amdo.1</t>
-  </si>
-  <si>
-    <t>amdo.2</t>
-  </si>
-  <si>
-    <t>ap.100</t>
-  </si>
-  <si>
-    <t>ap.102</t>
+    <t>ap.101-Crotalus_horridus</t>
+  </si>
+  <si>
+    <t>ap.101</t>
+  </si>
+  <si>
+    <t>ap.101-Crotalus_viridis</t>
+  </si>
+  <si>
+    <t>ap.101-Protobothrops_flavoviridis</t>
+  </si>
+  <si>
+    <t>ap.101-Protobothrops_mucrosquamatus</t>
+  </si>
+  <si>
+    <t>ap.101-Ptyas_mucosa</t>
+  </si>
+  <si>
+    <t>ap.101-serpentes-UR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -470,8 +470,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -654,6 +662,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -818,7 +832,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -830,6 +844,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1187,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AE10" sqref="A1:AE10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1202,16 +1217,16 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
@@ -1296,32 +1311,32 @@
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>87</v>
+      <c r="A2" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
       </c>
       <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" t="s">
         <v>52</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>54</v>
       </c>
       <c r="J2" t="s">
         <v>37</v>
@@ -1333,7 +1348,7 @@
         <v>10041</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N2">
         <v>598</v>
@@ -1372,51 +1387,51 @@
         <v>5580</v>
       </c>
       <c r="Z2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>47</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>50</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>88</v>
+      <c r="A3" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
         <v>33</v>
       </c>
       <c r="G3" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" t="s">
         <v>52</v>
       </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
         <v>37</v>
@@ -1428,7 +1443,7 @@
         <v>112702</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -1467,36 +1482,36 @@
         <v>1827</v>
       </c>
       <c r="Z3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" t="s">
         <v>46</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>47</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>48</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>49</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>50</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C4" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
@@ -1523,7 +1538,7 @@
         <v>853</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N4">
         <v>58</v>
@@ -1582,34 +1597,34 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
       </c>
       <c r="G5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" t="s">
         <v>73</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>74</v>
       </c>
-      <c r="I5" t="s">
-        <v>75</v>
-      </c>
       <c r="J5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>115621</v>
@@ -1618,7 +1633,7 @@
         <v>115950</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N5">
         <v>58</v>
@@ -1657,7 +1672,7 @@
         <v>330</v>
       </c>
       <c r="Z5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s">
         <v>28</v>
@@ -1677,31 +1692,31 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C6" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
       </c>
       <c r="G6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
         <v>77</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>78</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
       </c>
       <c r="J6" t="s">
         <v>37</v>
@@ -1713,7 +1728,7 @@
         <v>1057106</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N6">
         <v>401</v>
@@ -1752,7 +1767,7 @@
         <v>3663</v>
       </c>
       <c r="Z6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s">
         <v>28</v>
@@ -1767,39 +1782,39 @@
         <v>31</v>
       </c>
       <c r="AE6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C7" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
       </c>
       <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
         <v>42</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>43</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>44</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
       </c>
       <c r="K7">
         <v>97680</v>
@@ -1808,7 +1823,7 @@
         <v>101695</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1847,7 +1862,7 @@
         <v>4016</v>
       </c>
       <c r="Z7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA7" t="s">
         <v>28</v>
@@ -1862,36 +1877,36 @@
         <v>31</v>
       </c>
       <c r="AE7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C8" s="4">
         <v>100</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
         <v>33</v>
       </c>
       <c r="G8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" t="s">
         <v>83</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>84</v>
-      </c>
-      <c r="I8" t="s">
-        <v>85</v>
       </c>
       <c r="J8" t="s">
         <v>37</v>
@@ -1903,7 +1918,7 @@
         <v>8652032</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N8">
         <v>1195</v>
@@ -1942,7 +1957,7 @@
         <v>282</v>
       </c>
       <c r="Z8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s">
         <v>28</v>
@@ -1954,39 +1969,39 @@
         <v>30</v>
       </c>
       <c r="AD8" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE8" t="s">
         <v>81</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="4">
         <v>102</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
       </c>
       <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
         <v>69</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>70</v>
-      </c>
-      <c r="I9" t="s">
-        <v>71</v>
       </c>
       <c r="J9" t="s">
         <v>37</v>
@@ -1998,7 +2013,7 @@
         <v>8465</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>14</v>
@@ -2037,51 +2052,51 @@
         <v>255</v>
       </c>
       <c r="Z9" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE9" t="s">
         <v>67</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>59</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="4">
         <v>102</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" t="s">
         <v>33</v>
       </c>
       <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
         <v>63</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>64</v>
-      </c>
-      <c r="I10" t="s">
-        <v>65</v>
       </c>
       <c r="J10" t="s">
         <v>37</v>
@@ -2093,7 +2108,7 @@
         <v>3945</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -2132,22 +2147,22 @@
         <v>294</v>
       </c>
       <c r="Z10" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB10" t="s">
         <v>58</v>
       </c>
-      <c r="AA10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>59</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>60</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>61</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/eve/epv-amdo-side-data.xlsx
+++ b/tabular/eve/epv-amdo-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/Parvoviridae-GLUE/tabular/eve/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3004DB4B-4E81-1A46-96FB-B14DE4D2FBD4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1733C57-D985-EF4D-9400-2442D3205EB3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19720" yWindow="2720" windowWidth="31140" windowHeight="26000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection sqref="A1:AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1888,7 +1888,7 @@
         <v>102</v>
       </c>
       <c r="C8" s="4">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>97</v>
